--- a/reports/KhachHang.xlsx
+++ b/reports/KhachHang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phuc Toan\Documents\NetBeansProjects\ToyShopWizard\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69E3A19-6519-4881-B28E-674DC4B8D7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CABA7ED-2BCC-46F7-9F80-9ED849E64D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="14400" windowHeight="7308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KhachHang" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="106">
   <si>
     <t>MaKH</t>
   </si>
@@ -142,9 +142,6 @@
     <t>08061995</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>KH07</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>09081995</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>KH09</t>
   </si>
   <si>
@@ -332,6 +326,18 @@
   </si>
   <si>
     <t>Minzy.jpg</t>
+  </si>
+  <si>
+    <t>Jonghyun.jpg</t>
+  </si>
+  <si>
+    <t>Dongho.jpg</t>
+  </si>
+  <si>
+    <t>Minhyun.jpg</t>
+  </si>
+  <si>
+    <t>Mingi.jpg</t>
   </si>
 </sst>
 </file>
@@ -691,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,21 +867,21 @@
         <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -884,24 +890,24 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -910,24 +916,24 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
         <v>52</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>53</v>
-      </c>
-      <c r="C9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" t="s">
-        <v>55</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -936,218 +942,218 @@
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
       </c>
       <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
         <v>59</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>60</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
         <v>64</v>
       </c>
-      <c r="D11" t="s">
+      <c r="H11" t="s">
         <v>65</v>
-      </c>
-      <c r="E11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
         <v>68</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>69</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" t="s">
         <v>70</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
         <v>71</v>
       </c>
-      <c r="E12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>72</v>
-      </c>
-      <c r="G12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" t="s">
         <v>75</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>76</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
         <v>77</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
         <v>78</v>
       </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>79</v>
-      </c>
-      <c r="G13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H13" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
         <v>82</v>
       </c>
-      <c r="B14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
         <v>83</v>
       </c>
-      <c r="D14" t="s">
+      <c r="H14" t="s">
         <v>84</v>
-      </c>
-      <c r="E14" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
         <v>87</v>
       </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
         <v>88</v>
       </c>
-      <c r="D15" t="s">
+      <c r="H15" t="s">
         <v>89</v>
-      </c>
-      <c r="E15" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H15" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
         <v>92</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>93</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
         <v>94</v>
       </c>
-      <c r="D16" t="s">
+      <c r="H16" t="s">
         <v>95</v>
-      </c>
-      <c r="E16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" t="s">
-        <v>96</v>
-      </c>
-      <c r="H16" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
         <v>98</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>99</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
         <v>100</v>
       </c>
-      <c r="D17" t="s">
+      <c r="H17" t="s">
         <v>101</v>
-      </c>
-      <c r="E17" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/reports/KhachHang.xlsx
+++ b/reports/KhachHang.xlsx
@@ -1,21 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phuc Toan\Documents\NetBeansProjects\ToyShopWizard\reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CABA7ED-2BCC-46F7-9F80-9ED849E64D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="14400" windowHeight="7308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="KhachHang" sheetId="1" r:id="rId1"/>
+    <sheet name="KhachHang" r:id="rId3" sheetId="1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -142,6 +134,9 @@
     <t>08061995</t>
   </si>
   <si>
+    <t>Jonghyun.jpg</t>
+  </si>
+  <si>
     <t>KH07</t>
   </si>
   <si>
@@ -157,6 +152,9 @@
     <t>21071995</t>
   </si>
   <si>
+    <t>Dongho.jpg</t>
+  </si>
+  <si>
     <t>KH08</t>
   </si>
   <si>
@@ -172,6 +170,9 @@
     <t>09081995</t>
   </si>
   <si>
+    <t>Minhyun.jpg</t>
+  </si>
+  <si>
     <t>KH09</t>
   </si>
   <si>
@@ -187,6 +188,9 @@
     <t>03111995</t>
   </si>
   <si>
+    <t>Mingi.jpg</t>
+  </si>
+  <si>
     <t>KH10</t>
   </si>
   <si>
@@ -326,36 +330,25 @@
   </si>
   <si>
     <t>Minzy.jpg</t>
-  </si>
-  <si>
-    <t>Jonghyun.jpg</t>
-  </si>
-  <si>
-    <t>Dongho.jpg</t>
-  </si>
-  <si>
-    <t>Minhyun.jpg</t>
-  </si>
-  <si>
-    <t>Mingi.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
       <name val="Calibri"/>
+      <sz val="14.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -363,7 +356,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -380,367 +373,56 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.46875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="10.296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.015625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.23828125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.0859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="12.66796875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="9.95703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.2890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -766,7 +448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -792,7 +474,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -818,7 +500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -844,7 +526,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -867,21 +549,21 @@
         <v>39</v>
       </c>
       <c r="H6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -890,24 +572,24 @@
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -916,24 +598,24 @@
         <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -942,221 +624,221 @@
         <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" t="s">
         <v>62</v>
       </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" t="s">
-        <v>58</v>
-      </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
         <v>71</v>
       </c>
-      <c r="H12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>